--- a/RAnalysis/Data/Physiology/Excretion_rates/F1/worksheets/20221026_Excretion_raw_googledrive.xlsx
+++ b/RAnalysis/Data/Physiology/Excretion_rates/F1/worksheets/20221026_Excretion_raw_googledrive.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.gurr\Documents\Github_repositories\Airradians_multigen_OA\RAnalysis\Data\Physiology\Excretion_rates\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\Github_repositories\Airradians_multigen_OA\RAnalysis\Data\Physiology\Excretion_rates\F1\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7744CC6-D327-4E0A-9681-FE2ADD8AC80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="21864" windowHeight="9780"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="10340" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excretion 10-26-21" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhtFZCCTLPudO1+SAlOVH/03vHzew=="/>
     </ext>
@@ -24,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="M17" authorId="0" shapeId="0">
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +79,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -76,7 +87,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>C</t>
     </r>
@@ -268,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -285,46 +295,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF24292F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -341,7 +344,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -385,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -416,6 +418,8 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -432,11 +436,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -521,7 +528,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -576,7 +582,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3885-48BE-A843-BBD4B9F8348E}"/>
+              <c16:uniqueId val="{00000001-0FAA-44A0-B0B2-D95C5656104A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -588,11 +594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1820931902"/>
-        <c:axId val="762962630"/>
+        <c:axId val="1267310550"/>
+        <c:axId val="659244043"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1820931902"/>
+        <c:axId val="1267310550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +631,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -650,12 +655,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="762962630"/>
+        <c:crossAx val="659244043"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="762962630"/>
+        <c:axId val="659244043"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +693,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -713,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820931902"/>
+        <c:crossAx val="1267310550"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -742,7 +746,13 @@
     <xdr:ext cx="4572000" cy="2876550"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1781269352" name="Chart 1"/>
+        <xdr:cNvPr id="1781269352" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068032C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -767,7 +777,13 @@
     <xdr:ext cx="4400550" cy="2876550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Chart"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -985,35 +1001,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" customWidth="1"/>
-    <col min="19" max="29" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" customWidth="1"/>
+    <col min="10" max="15" width="12.7265625" customWidth="1"/>
+    <col min="16" max="17" width="8.7265625" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" customWidth="1"/>
+    <col min="19" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:29" ht="16.5">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1041,7 +1057,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="14.4">
+    <row r="2" spans="1:29" ht="14.5">
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1103,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="14.4">
+    <row r="3" spans="1:29" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1144,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="14.4">
+    <row r="4" spans="1:29" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1177,7 +1193,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="14.4">
+    <row r="5" spans="1:29" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1245,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="14.4">
+    <row r="6" spans="1:29" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1277,7 +1293,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" ht="14.4">
+    <row r="7" spans="1:29" ht="14.5">
       <c r="D7" s="12">
         <v>0.4</v>
       </c>
@@ -1322,7 +1338,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.5">
       <c r="D8" s="12">
         <v>0.8</v>
       </c>
@@ -1367,7 +1383,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="1"/>
@@ -1403,7 +1419,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.5">
       <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1459,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="A11" s="17">
         <f>0.4723/0.5</f>
         <v>0.9446</v>
@@ -1510,7 +1526,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
@@ -1556,12 +1572,22 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="10"/>
+      <c r="H13" s="20">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0.46111111111111114</v>
+      </c>
+      <c r="J13" s="21">
+        <f>60+4+18</f>
+        <v>82</v>
+      </c>
+      <c r="K13" s="10">
+        <f>J13/60</f>
+        <v>1.3666666666666667</v>
+      </c>
       <c r="L13" s="18" t="s">
         <v>44</v>
       </c>
@@ -1577,21 +1603,23 @@
         <f>O13-$O$20</f>
         <v>0.2555642949812662</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="21">
-        <f t="shared" ref="S13:S18" si="4">Q13-R13</f>
-        <v>254.7</v>
-      </c>
-      <c r="T13" s="10" t="e">
-        <f t="shared" ref="T13:T18" si="5">(P13*S13)/K13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" s="10" t="e">
-        <f t="shared" ref="U13:U18" si="6">T13/14</f>
-        <v>#DIV/0!</v>
+      <c r="R13" s="14">
+        <v>33</v>
+      </c>
+      <c r="S13" s="23">
+        <f t="shared" ref="S13:S19" si="4">Q13-R13</f>
+        <v>221.7</v>
+      </c>
+      <c r="T13" s="10">
+        <f>(P13*S13)/K13</f>
+        <v>41.457515266351251</v>
+      </c>
+      <c r="U13" s="10">
+        <f>T13/14</f>
+        <v>2.9612510904536609</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1602,9 +1630,9 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="10"/>
@@ -1618,22 +1646,18 @@
         <v>-5.1914071828309791E-5</v>
       </c>
       <c r="P14" s="13"/>
-      <c r="Q14" s="22" t="s">
+      <c r="Q14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="21">
+      <c r="R14" s="14">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="S14" s="23">
         <f t="shared" si="4"/>
-        <v>257.88</v>
-      </c>
-      <c r="T14" s="10" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>225.68</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1643,13 +1667,22 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="10"/>
+      <c r="H15" s="20">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0.42777777777777776</v>
+      </c>
+      <c r="J15" s="21">
+        <v>34</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" ref="K15:K17" si="5">J15/60</f>
+        <v>0.56666666666666665</v>
+      </c>
       <c r="L15" s="18" t="s">
         <v>48</v>
       </c>
@@ -1658,28 +1691,30 @@
         <v>0.21160000000000001</v>
       </c>
       <c r="O15" s="19">
-        <f t="shared" ref="O15:O28" si="7">((N15-R$4)/R$3)</f>
+        <f t="shared" ref="O15:O28" si="6">((N15-R$4)/R$3)</f>
         <v>1.3831671250405944</v>
       </c>
       <c r="P15" s="13">
-        <f t="shared" ref="P15:P19" si="8">O15-$O$20</f>
+        <f t="shared" ref="P15:P19" si="7">O15-$O$20</f>
         <v>0.26013961484026593</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="21">
+      <c r="R15" s="14">
+        <v>21.4</v>
+      </c>
+      <c r="S15" s="23">
         <f t="shared" si="4"/>
-        <v>246.63</v>
-      </c>
-      <c r="T15" s="10" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>225.23</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" ref="T15:T19" si="8">(P15*S15)/K15</f>
+        <v>103.39631550083487</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" ref="U15:U19" si="9">T15/14</f>
+        <v>7.3854511072024911</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1690,14 +1725,24 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="23" t="s">
+      <c r="H16" s="20">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <f>39+18</f>
+        <v>57</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="L16" s="25" t="s">
         <v>50</v>
       </c>
       <c r="M16" s="5"/>
@@ -1705,28 +1750,30 @@
         <v>0.37990000000000002</v>
       </c>
       <c r="O16" s="19">
+        <f t="shared" si="6"/>
+        <v>2.4832047425686534</v>
+      </c>
+      <c r="P16" s="13">
         <f t="shared" si="7"/>
-        <v>2.4832047425686534</v>
-      </c>
-      <c r="P16" s="13">
-        <f t="shared" si="8"/>
         <v>1.360177232368325</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="26">
         <v>252.35</v>
       </c>
-      <c r="R16" s="10"/>
+      <c r="R16" s="14">
+        <v>31.8</v>
+      </c>
       <c r="S16" s="10">
         <f t="shared" si="4"/>
-        <v>252.35</v>
-      </c>
-      <c r="T16" s="10" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>220.54999999999998</v>
+      </c>
+      <c r="T16" s="10">
+        <f t="shared" si="8"/>
+        <v>315.77588273561486</v>
+      </c>
+      <c r="U16" s="10">
+        <f t="shared" si="9"/>
+        <v>22.555420195401062</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1737,14 +1784,24 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="6:29" ht="14.4">
+    <row r="17" spans="6:29" ht="14.5">
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="23" t="s">
+      <c r="H17" s="20">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="J17" s="1">
+        <f>38+18</f>
+        <v>56</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="5"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="L17" s="25" t="s">
         <v>51</v>
       </c>
       <c r="M17" s="5"/>
@@ -1752,28 +1809,30 @@
         <v>0.22120000000000001</v>
       </c>
       <c r="O17" s="19">
+        <f t="shared" si="6"/>
+        <v>1.4459143688211609</v>
+      </c>
+      <c r="P17" s="13">
         <f t="shared" si="7"/>
-        <v>1.4459143688211609</v>
-      </c>
-      <c r="P17" s="13">
-        <f t="shared" si="8"/>
         <v>0.32288685862083244</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17" s="27">
         <v>2424.31</v>
       </c>
-      <c r="R17" s="10"/>
+      <c r="R17" s="14">
+        <v>18.5</v>
+      </c>
       <c r="S17" s="10">
         <f t="shared" si="4"/>
-        <v>2424.31</v>
-      </c>
-      <c r="T17" s="10" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>2405.81</v>
+      </c>
+      <c r="T17" s="10">
+        <f t="shared" si="8"/>
+        <v>832.29046429134098</v>
+      </c>
+      <c r="U17" s="10">
+        <f t="shared" si="9"/>
+        <v>59.449318877952926</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1784,14 +1843,24 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="6:29" ht="14.4">
+    <row r="18" spans="6:29" ht="14.5">
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="23" t="s">
+      <c r="H18" s="20">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="J18" s="21">
+        <f>60+23</f>
+        <v>83</v>
+      </c>
+      <c r="K18" s="10">
+        <f>83/60</f>
+        <v>1.3833333333333333</v>
+      </c>
+      <c r="L18" s="25" t="s">
         <v>52</v>
       </c>
       <c r="M18" s="5"/>
@@ -1799,28 +1868,30 @@
         <v>0.2014</v>
       </c>
       <c r="O18" s="19">
+        <f t="shared" si="6"/>
+        <v>1.3164981785237422</v>
+      </c>
+      <c r="P18" s="13">
         <f t="shared" si="7"/>
-        <v>1.3164981785237422</v>
-      </c>
-      <c r="P18" s="13">
-        <f t="shared" si="8"/>
         <v>0.19347066832341375</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="27">
         <v>247.07</v>
       </c>
-      <c r="R18" s="10"/>
+      <c r="R18" s="14">
+        <v>18.600000000000001</v>
+      </c>
       <c r="S18" s="10">
         <f t="shared" si="4"/>
-        <v>247.07</v>
-      </c>
-      <c r="T18" s="10" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>228.47</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="8"/>
+        <v>31.953429102542415</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="9"/>
+        <v>2.282387793038744</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -1831,14 +1902,24 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="6:29" ht="14.4">
+    <row r="19" spans="6:29" ht="14.5">
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="23" t="s">
+      <c r="H19" s="20">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="J19" s="1">
+        <f>21+18</f>
+        <v>39</v>
+      </c>
+      <c r="K19" s="1">
+        <f>39/60</f>
+        <v>0.65</v>
+      </c>
+      <c r="L19" s="25" t="s">
         <v>53</v>
       </c>
       <c r="M19" s="5"/>
@@ -1846,20 +1927,31 @@
         <v>0.2404</v>
       </c>
       <c r="O19" s="19">
+        <f t="shared" si="6"/>
+        <v>1.5714088563822941</v>
+      </c>
+      <c r="P19" s="13">
         <f t="shared" si="7"/>
-        <v>1.5714088563822941</v>
-      </c>
-      <c r="P19" s="13">
+        <v>0.44838134618196568</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>241.11</v>
+      </c>
+      <c r="R19" s="21">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="4"/>
+        <v>221.01000000000002</v>
+      </c>
+      <c r="T19" s="10">
         <f t="shared" si="8"/>
-        <v>0.44838134618196568</v>
-      </c>
-      <c r="Q19" s="26">
-        <v>241.11</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+        <v>152.456555876425</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="9"/>
+        <v>10.889753991173214</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -1869,14 +1961,24 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="6:29" ht="14.4">
+    <row r="20" spans="6:29" ht="14.5">
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="23" t="s">
+      <c r="H20" s="20">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J20" s="1">
+        <f>24+18+60</f>
+        <v>102</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" ref="K20:K28" si="10">J20/60</f>
+        <v>1.7</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>54</v>
       </c>
       <c r="M20" s="5"/>
@@ -1884,14 +1986,16 @@
         <v>0.17180000000000001</v>
       </c>
       <c r="O20" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.1230275102003284</v>
       </c>
       <c r="P20" s="5"/>
-      <c r="Q20" s="26">
+      <c r="Q20" s="21">
         <v>243.59</v>
       </c>
-      <c r="R20" s="1"/>
+      <c r="R20" s="21">
+        <v>6.1</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -1907,11 +2011,20 @@
     <row r="21" spans="6:29" ht="15.75" customHeight="1">
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="23" t="s">
+      <c r="H21" s="20">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0.53125</v>
+      </c>
+      <c r="J21" s="21">
+        <v>58</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="10"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>55</v>
       </c>
       <c r="M21" s="5"/>
@@ -1919,28 +2032,30 @@
         <v>0.2114</v>
       </c>
       <c r="O21" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.3818598907951658</v>
       </c>
       <c r="P21" s="13">
-        <f t="shared" ref="P21:P28" si="9">O21-$O$28</f>
+        <f t="shared" ref="P21:P28" si="11">O21-$O$28</f>
         <v>0.3039319620621197</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="16"/>
+      <c r="R21" s="28">
+        <v>19.100000000000001</v>
+      </c>
       <c r="S21" s="16">
-        <f t="shared" ref="S21:S26" si="10">Q21-R21</f>
-        <v>254.7</v>
-      </c>
-      <c r="T21" s="10" t="e">
-        <f t="shared" ref="T21:T26" si="11">(P21*S21)/K21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" s="10" t="e">
-        <f t="shared" ref="U21:U26" si="12">T21/14</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="S21:S27" si="12">Q21-R21</f>
+        <v>235.6</v>
+      </c>
+      <c r="T21" s="10">
+        <f t="shared" ref="T21:T27" si="13">(P21*S21)/K21</f>
+        <v>74.075555443277992</v>
+      </c>
+      <c r="U21" s="10">
+        <f t="shared" ref="U21:U27" si="14">T21/14</f>
+        <v>5.2911111030912847</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -1954,11 +2069,21 @@
     <row r="22" spans="6:29" ht="15.75" customHeight="1">
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="23" t="s">
+      <c r="H22" s="20">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I22" s="20">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <f>60+13+5</f>
+        <v>78</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+      <c r="L22" s="25" t="s">
         <v>56</v>
       </c>
       <c r="M22" s="5"/>
@@ -1966,28 +2091,30 @@
         <v>0.1988</v>
       </c>
       <c r="O22" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2995041333331721</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.22157620460012595</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="Q22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="21">
-        <f t="shared" si="10"/>
-        <v>257.88</v>
-      </c>
-      <c r="T22" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="10" t="e">
+      <c r="R22" s="14">
+        <v>21.1</v>
+      </c>
+      <c r="S22" s="23">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>236.78</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" si="13"/>
+        <v>40.357549019398327</v>
+      </c>
+      <c r="U22" s="10">
+        <f t="shared" si="14"/>
+        <v>2.8826820728141662</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -2001,11 +2128,21 @@
     <row r="23" spans="6:29" ht="15.75" customHeight="1">
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="23" t="s">
+      <c r="H23" s="20">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="J23" s="1">
+        <f>13+12</f>
+        <v>25</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="10"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L23" s="25" t="s">
         <v>57</v>
       </c>
       <c r="M23" s="5"/>
@@ -2013,28 +2150,30 @@
         <v>0.23130000000000001</v>
       </c>
       <c r="O23" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.5119296982152988</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.43400176948225266</v>
       </c>
-      <c r="Q23" s="22" t="s">
+      <c r="Q23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="16"/>
+      <c r="R23" s="28">
+        <v>26.9</v>
+      </c>
       <c r="S23" s="16">
-        <f t="shared" si="10"/>
-        <v>246.63</v>
-      </c>
-      <c r="T23" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>219.73</v>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" si="13"/>
+        <v>228.87170114000489</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" si="14"/>
+        <v>16.347978652857492</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -2048,11 +2187,21 @@
     <row r="24" spans="6:29" ht="15.75" customHeight="1">
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="23" t="s">
+      <c r="H24" s="20">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I24" s="20">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="J24" s="1">
+        <f>13+14</f>
+        <v>27</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="10"/>
+        <v>0.45</v>
+      </c>
+      <c r="L24" s="25" t="s">
         <v>58</v>
       </c>
       <c r="M24" s="5"/>
@@ -2060,28 +2209,30 @@
         <v>0.25459999999999999</v>
       </c>
       <c r="O24" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.6642224878077156</v>
       </c>
       <c r="P24" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.58629455907466954</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="26">
         <v>252.35</v>
       </c>
-      <c r="R24" s="10"/>
+      <c r="R24" s="14">
+        <v>24.7</v>
+      </c>
       <c r="S24" s="10">
-        <f t="shared" si="10"/>
-        <v>252.35</v>
-      </c>
-      <c r="T24" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>227.65</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="13"/>
+        <v>296.59990305188563</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="14"/>
+        <v>21.185707360848973</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -2095,11 +2246,21 @@
     <row r="25" spans="6:29" ht="15.75" customHeight="1">
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="23" t="s">
+      <c r="H25" s="20">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="J25" s="1">
+        <f>13+33</f>
+        <v>46</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="10"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="L25" s="25" t="s">
         <v>59</v>
       </c>
       <c r="M25" s="5"/>
@@ -2107,28 +2268,30 @@
         <v>0.21560000000000001</v>
       </c>
       <c r="O25" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.4093118099491637</v>
       </c>
       <c r="P25" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.33138388121611762</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="27">
         <v>2424.31</v>
       </c>
-      <c r="R25" s="10"/>
+      <c r="R25" s="14">
+        <v>23.9</v>
+      </c>
       <c r="S25" s="10">
-        <f t="shared" si="10"/>
-        <v>2424.31</v>
-      </c>
-      <c r="T25" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2400.41</v>
+      </c>
+      <c r="T25" s="10">
+        <f t="shared" si="13"/>
+        <v>1037.5528464912793</v>
+      </c>
+      <c r="U25" s="10">
+        <f t="shared" si="14"/>
+        <v>74.110917606519948</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -2142,11 +2305,21 @@
     <row r="26" spans="6:29" ht="15.75" customHeight="1">
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="23" t="s">
+      <c r="H26" s="20">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I26" s="20">
+        <v>4.583333333333333E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <f>60+13+6</f>
+        <v>79</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="10"/>
+        <v>1.3166666666666667</v>
+      </c>
+      <c r="L26" s="25" t="s">
         <v>60</v>
       </c>
       <c r="M26" s="5"/>
@@ -2154,28 +2327,30 @@
         <v>0.20669999999999999</v>
       </c>
       <c r="O26" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.3511398860275967</v>
       </c>
       <c r="P26" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.27321195729455061</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="27">
         <v>247.07</v>
       </c>
-      <c r="R26" s="10"/>
+      <c r="R26" s="14">
+        <v>17.600000000000001</v>
+      </c>
       <c r="S26" s="10">
-        <f t="shared" si="10"/>
-        <v>247.07</v>
-      </c>
-      <c r="T26" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>229.47</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="13"/>
+        <v>47.615656587630781</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="14"/>
+        <v>3.4011183276879131</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -2189,11 +2364,21 @@
     <row r="27" spans="6:29" ht="15.75" customHeight="1">
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="23" t="s">
+      <c r="H27" s="20">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I27" s="20">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="J27" s="1">
+        <f>13+10</f>
+        <v>23</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="10"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="L27" s="25" t="s">
         <v>61</v>
       </c>
       <c r="M27" s="5"/>
@@ -2201,20 +2386,31 @@
         <v>0.26119999999999999</v>
       </c>
       <c r="O27" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7073612179068551</v>
       </c>
       <c r="P27" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.62943328917380903</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="21">
         <v>241.11</v>
       </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
+      <c r="R27" s="21">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="12"/>
+        <v>203.41000000000003</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="13"/>
+        <v>333.99919656742043</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="14"/>
+        <v>23.85708546910146</v>
+      </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -2227,41 +2423,44 @@
     <row r="28" spans="6:29" ht="15.75" customHeight="1">
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="23" t="s">
+      <c r="H28" s="20">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I28" s="29">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <f>60+13+7</f>
+        <v>80</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>62</v>
       </c>
       <c r="M28" s="5"/>
-      <c r="N28" s="29">
+      <c r="N28" s="30">
         <v>0.16489999999999999</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0779279287330461</v>
       </c>
       <c r="P28" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="21">
         <v>243.59</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="21">
-        <f>Q28-R28</f>
-        <v>243.59</v>
-      </c>
-      <c r="T28" s="21" t="e">
-        <f>(P28*S28)/K28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="21" t="e">
-        <f>T28/14</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R28" s="21">
+        <v>6.1</v>
+      </c>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -2274,20 +2473,20 @@
     <row r="29" spans="6:29" ht="15.75" customHeight="1">
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="28"/>
+      <c r="K29" s="32"/>
       <c r="L29" s="18"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="28"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="19"/>
       <c r="P29" s="13"/>
-      <c r="Q29" s="30"/>
+      <c r="Q29" s="33"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
@@ -2306,14 +2505,14 @@
       <c r="K30" s="16"/>
       <c r="L30" s="18"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="32"/>
       <c r="O30" s="19"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -2326,20 +2525,20 @@
     <row r="31" spans="6:29" ht="15.75" customHeight="1">
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="28"/>
+      <c r="K31" s="32"/>
       <c r="L31" s="18"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="28"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="19"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -2352,20 +2551,20 @@
     <row r="32" spans="6:29" ht="15.75" customHeight="1">
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="28"/>
+      <c r="K32" s="32"/>
       <c r="L32" s="18"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="28"/>
+      <c r="N32" s="32"/>
       <c r="O32" s="19"/>
       <c r="P32" s="13"/>
-      <c r="Q32" s="31"/>
+      <c r="Q32" s="34"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
@@ -2378,20 +2577,20 @@
     <row r="33" spans="6:29" ht="15.75" customHeight="1">
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="28"/>
+      <c r="K33" s="32"/>
       <c r="L33" s="18"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="32"/>
       <c r="O33" s="19"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="32"/>
+      <c r="Q33" s="35"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -2404,20 +2603,20 @@
     <row r="34" spans="6:29" ht="15.75" customHeight="1">
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="28"/>
+      <c r="K34" s="32"/>
       <c r="L34" s="18"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="28"/>
+      <c r="N34" s="32"/>
       <c r="O34" s="19"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="32"/>
+      <c r="Q34" s="35"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -2436,7 +2635,7 @@
       <c r="K35" s="16"/>
       <c r="L35" s="18"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="28"/>
+      <c r="N35" s="32"/>
       <c r="O35" s="19"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="18"/>
